--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,22 +482,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>HS152</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -511,22 +514,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -570,22 +573,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,7 +610,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -617,12 +620,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +637,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -676,7 +679,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -769,7 +772,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -806,22 +809,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**HS152**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -853,22 +856,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -888,7 +891,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -900,22 +903,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -935,7 +938,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -994,22 +997,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**HS152**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1029,7 +1032,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1041,22 +1044,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1076,7 +1079,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1108,7 +1111,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1129,6 +1132,1809 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 54.3%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 32.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C003]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3279,7 +3279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,7 +3463,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3522,7 +3522,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4147,21 +4147,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5012,24 +5012,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5041,12 +5037,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5062,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5097,7 +5093,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5156,7 +5156,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5164,7 +5168,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -5184,27 +5188,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5215,15 +5219,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -5243,27 +5251,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5274,15 +5282,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -5302,27 +5314,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5333,15 +5345,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5377,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5392,7 +5408,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5400,7 +5420,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5445,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5463,7 +5483,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5508,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5526,7 +5546,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5589,7 +5609,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5634,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5652,7 +5672,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5697,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5715,7 +5735,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -5740,22 +5760,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5766,19 +5786,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5798,12 +5814,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5841,7 +5857,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5877,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5904,7 +5920,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5940,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5967,7 +5983,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -5987,12 +6003,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6030,7 +6046,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -6050,12 +6066,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6093,7 +6109,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -6113,27 +6129,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6144,15 +6160,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -6172,12 +6192,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6203,7 +6223,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6211,7 +6235,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -6231,27 +6255,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6262,15 +6286,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6290,12 +6318,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6333,7 +6361,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6353,12 +6381,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6396,7 +6424,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6416,12 +6444,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6459,7 +6487,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -6479,27 +6507,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6510,19 +6538,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6542,27 +6566,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -6573,3759 +6597,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
           <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,222 +479,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C202]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L404]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 (Lab) [L404]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS152 [C204]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -778,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -808,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -944,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1046,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1182,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1250,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1284,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1556,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1808,16 +1872,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1842,16 +1906,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1944,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,222 +2079,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C202]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS152 [C204]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2285,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2442,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2459,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2476,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C104</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2493,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -2382,12 +2510,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2399,12 +2527,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104, C205</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2544,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202, C302</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2561,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C204</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2583,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203, C204, C205</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2743,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404, C205</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2790,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2837,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2884,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C304, C004</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2931,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L404, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2978,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C204, C202, L105</t>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
@@ -2912,7 +3040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,26 +3098,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2997,33 +3120,33 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS152, MA162, CS161...</t>
+          <t>MA162, DS161, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3032,7 +3155,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3040,23 +3163,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161, MA161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3071,11 +3194,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3087,19 +3210,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3118,7 +3241,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3130,38 +3253,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3173,38 +3296,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3216,55 +3339,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,6 +3433,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3380,17 +3465,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3404,12 +3489,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3463,12 +3553,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3522,12 +3617,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3557,17 +3657,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3581,12 +3681,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3721,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3640,12 +3745,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3675,17 +3785,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3699,12 +3809,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3849,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -3758,12 +3873,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3793,17 +3913,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -3817,12 +3937,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3852,12 +3977,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3876,12 +4001,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3911,19 +4041,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -3935,12 +4061,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3970,19 +4101,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -3994,12 +4121,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4029,19 +4161,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -4053,12 +4181,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4088,19 +4221,15 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -4112,12 +4241,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4147,21 +4281,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -4171,12 +4305,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4238,6 +4377,11 @@
           <t>EC161 (Lab)</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4265,19 +4409,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -4289,12 +4429,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4502,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4387,17 +4537,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4415,12 +4565,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4450,19 +4605,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -4478,12 +4629,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4513,17 +4669,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4541,12 +4697,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4576,17 +4737,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4604,12 +4765,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4639,17 +4805,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4667,12 +4833,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4873,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4730,12 +4901,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4765,17 +4941,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4793,12 +4969,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4828,17 +5009,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4856,12 +5037,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4891,17 +5077,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -4919,12 +5105,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4954,17 +5145,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -4982,12 +5173,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5017,15 +5213,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5037,7 +5237,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5045,6 +5245,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5072,17 +5273,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5093,21 +5294,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5130,24 +5328,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -5156,21 +5350,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5188,27 +5379,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5226,12 +5417,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5251,27 +5447,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5289,12 +5485,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5314,27 +5515,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5352,12 +5553,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5583,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5420,7 +5626,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5440,27 +5651,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5478,12 +5689,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5503,27 +5719,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5541,12 +5757,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5566,27 +5787,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5604,12 +5825,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5629,27 +5855,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5667,12 +5893,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5692,27 +5923,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5730,12 +5961,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5991,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5765,19 +6001,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -5786,15 +6018,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5824,17 +6065,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -5852,12 +6093,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5877,27 +6123,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -5915,12 +6161,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5940,12 +6191,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5983,7 +6234,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6003,27 +6259,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6041,12 +6297,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6066,27 +6327,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6104,12 +6365,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6129,27 +6395,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6167,12 +6433,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6192,27 +6463,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6230,12 +6501,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6255,27 +6531,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6293,12 +6569,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6318,27 +6599,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6356,12 +6637,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6381,27 +6667,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6419,12 +6705,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6444,29 +6735,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -6482,12 +6769,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6804,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6527,7 +6819,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6538,74 +6830,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7222,12 +7464,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -7244,12 +7486,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27.1%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 54.3%, B: 0.0%</t>
+          <t>A: 42.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7513,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.1/100</t>
+          <t>Score: 30.3/100</t>
         </is>
       </c>
     </row>
@@ -8473,11 +8715,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8506,7 +8748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8573,7 +8815,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8608,7 +8850,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8629,7 +8871,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8643,7 +8885,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8664,7 +8906,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8678,7 +8920,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -8699,7 +8941,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8713,7 +8955,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8734,7 +8976,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8748,7 +8990,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -8769,7 +9011,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8783,7 +9025,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -8804,7 +9046,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8818,7 +9060,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -8826,41 +9068,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C104</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C203, C204, C205</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4469,17 +4469,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4537,17 +4537,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4610,10 +4610,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -4629,12 +4633,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4697,12 +4701,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4765,12 +4769,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4805,12 +4809,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4833,12 +4837,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4901,12 +4905,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4969,12 +4973,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5019,7 +5023,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5037,12 +5041,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5077,19 +5081,15 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5213,19 +5213,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5237,7 +5233,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5278,7 +5274,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5294,18 +5290,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5328,20 +5332,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -5350,18 +5358,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5379,22 +5395,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5417,17 +5433,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5463,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5485,17 +5501,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5531,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5535,7 +5551,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5553,17 +5569,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5583,27 +5599,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5621,17 +5637,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5667,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5689,17 +5705,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5735,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5757,17 +5773,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5787,22 +5803,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5825,17 +5841,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5855,29 +5871,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -5893,17 +5905,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5935,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5943,7 +5955,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5961,17 +5973,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5991,7 +6003,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6001,15 +6013,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6018,26 +6034,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6093,12 +6101,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6123,27 +6131,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6161,17 +6169,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6191,27 +6199,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6229,17 +6237,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6259,22 +6267,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -6297,17 +6305,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6335,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6365,17 +6373,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6395,22 +6403,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6433,17 +6441,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6463,22 +6471,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6501,17 +6509,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6539,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6569,17 +6577,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6607,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6637,17 +6645,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6667,29 +6675,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6705,17 +6709,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6735,25 +6739,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -6769,85 +6777,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [L404]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
     </row>
@@ -548,22 +548,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [L404]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L404]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L404]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [L404]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
     </row>
@@ -2148,22 +2148,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [L404]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2375,7 +2375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004, C303, L404</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2510,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L404</t>
         </is>
       </c>
     </row>
@@ -2544,12 +2544,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
     </row>
@@ -2561,29 +2561,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C204</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C204, C205</t>
+          <t>L406</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2691,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2738,12 +2721,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L404, C205</t>
+          <t>C004, L207</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2773,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004, L404</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2820,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2867,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2914,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L404</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2961,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L105, C001</t>
+          <t>L105, C104, C003</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2978,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3020,7 +3003,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3098,7 +3081,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3108,11 +3091,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3120,42 +3108,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA162, DS161, EC161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3163,23 +3151,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS161, MA161</t>
+          <t>DS161, HS152, CS161...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3194,11 +3182,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3210,34 +3198,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3253,7 +3241,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3265,12 +3253,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3280,7 +3268,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3296,7 +3284,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3335,11 +3323,11 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS152, MA162</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3359,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3395,47 +3383,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3465,42 +3463,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3529,42 +3535,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3593,42 +3607,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3657,42 +3679,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>HS152</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3721,42 +3751,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3785,42 +3823,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>HS152</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3849,42 +3895,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3913,42 +3967,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3977,42 +4039,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4041,38 +4111,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4101,38 +4183,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4161,38 +4255,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4221,38 +4327,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4281,42 +4399,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4345,42 +4471,50 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4409,38 +4543,50 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4469,46 +4615,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4537,46 +4691,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4605,46 +4767,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4673,46 +4843,54 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4741,46 +4919,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4809,46 +4995,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4877,46 +5071,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4945,46 +5147,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5013,46 +5223,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5081,42 +5299,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5135,7 +5365,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5145,46 +5375,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5203,45 +5441,65 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5269,46 +5527,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5337,46 +5603,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5405,46 +5679,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5473,46 +5755,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5541,46 +5831,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5609,46 +5907,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5677,46 +5983,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5745,46 +6059,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5803,56 +6125,64 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5871,52 +6201,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5935,56 +6277,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6003,7 +6353,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6013,39 +6363,55 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6073,46 +6439,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6141,46 +6515,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6209,46 +6591,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6277,46 +6667,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6345,46 +6743,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6413,382 +6819,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6875,17 +6953,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6910,7 +6988,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7340,7 +7418,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7365,7 +7443,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 2</t>
+          <t>Core: 6, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -8655,11 +8733,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8688,7 +8766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8755,7 +8833,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8790,7 +8868,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8811,7 +8889,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8825,7 +8903,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8846,7 +8924,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8860,7 +8938,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -8881,7 +8959,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8895,7 +8973,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8916,7 +8994,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8930,7 +9008,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -8951,7 +9029,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8965,7 +9043,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -8986,28 +9064,98 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>DE101</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -531,12 +531,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>26.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C303, L404</t>
+          <t>C004, C304, L404</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
     </row>
@@ -2576,448 +2576,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LTPSC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lect/Tuts/Week</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Labs/Week</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Combined Class</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B1**</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>**CS161**</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Manjunath</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C004, L207</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>**HS152**</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Anushree Kini</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C004, L404</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>**MA161**</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>**DS161**</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>**MA162**</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C004, L404</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**EC161**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>L105, C104, C003</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3034,159 +2592,507 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total Sessions</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Labs/Week</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Courses Assigned</t>
+          <t>Combined Class</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Sample Courses</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Utilization (Sessions/Day)</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>**ELECTIVE_B1**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8</v>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS161, HS152, CS161...</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>C004, L107</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>**HS152**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C004, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**MA162**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**EC161**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C004, L206</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 20.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 4 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HS152, MA162, CS161...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3198,38 +3104,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3241,98 +3147,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HS152, MA162</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3564,7 +3384,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3636,7 +3456,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3895,7 +3715,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3929,7 +3749,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -3967,7 +3787,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4001,7 +3821,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -4039,7 +3859,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4073,7 +3893,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -4111,7 +3931,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4145,7 +3965,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -4183,22 +4003,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4212,17 +4032,17 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -4245,32 +4065,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4284,17 +4104,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -4317,17 +4137,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4350,18 +4170,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -4389,32 +4213,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4422,23 +4246,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -4461,32 +4289,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4494,23 +4322,27 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -4533,7 +4365,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4543,22 +4375,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4566,18 +4398,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4615,22 +4451,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -4648,12 +4484,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4691,7 +4527,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4701,12 +4537,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4724,12 +4560,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4767,7 +4603,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4777,7 +4613,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4800,12 +4636,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4843,7 +4679,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4853,7 +4689,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4876,12 +4712,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4919,7 +4755,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4929,7 +4765,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4952,12 +4788,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4995,22 +4831,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5028,12 +4864,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5061,7 +4897,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5071,7 +4907,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5081,12 +4917,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5104,12 +4940,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5137,7 +4973,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5147,7 +4983,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5157,7 +4993,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5180,12 +5016,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5213,7 +5049,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5223,7 +5059,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5233,7 +5069,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5256,12 +5092,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5289,7 +5125,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5299,7 +5135,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5309,7 +5145,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5332,12 +5168,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5375,22 +5211,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5408,12 +5244,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5451,7 +5287,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5461,12 +5297,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5484,12 +5320,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5527,7 +5363,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5537,7 +5373,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5560,12 +5396,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5603,7 +5439,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5613,7 +5449,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5636,12 +5472,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5679,7 +5515,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5689,7 +5525,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5712,12 +5548,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5755,22 +5591,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5788,12 +5624,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5821,17 +5657,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5841,12 +5677,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5864,17 +5700,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -5897,17 +5733,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5917,7 +5753,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5940,17 +5776,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -5973,17 +5809,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5993,7 +5829,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6016,17 +5852,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -6049,17 +5885,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6069,7 +5905,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6092,17 +5928,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -6135,22 +5971,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6168,12 +6004,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6211,7 +6047,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6221,12 +6057,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6244,12 +6080,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6287,7 +6123,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6297,7 +6133,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6320,12 +6156,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6363,7 +6199,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6373,7 +6209,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6396,12 +6232,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -6439,7 +6275,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6449,7 +6285,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -6472,12 +6308,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -6515,22 +6351,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6548,12 +6384,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -6562,310 +6398,6 @@
         </is>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6880,7 +6412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7005,27 +6537,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7045,7 +6577,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7062,27 +6594,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3/0/2</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -7102,7 +6634,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7119,12 +6651,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7139,7 +6671,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7176,22 +6708,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7225,120 +6757,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7418,7 +6836,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7439,11 +6857,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 1</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -7465,7 +6883,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/7 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7482,12 +6900,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>4/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 11.1%</t>
         </is>
       </c>
     </row>
@@ -7504,12 +6922,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 42.2%, B: 0.0%</t>
+          <t>A: 33.3%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7531,7 +6949,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 30.3/100</t>
+          <t>Score: 29.0/100</t>
         </is>
       </c>
     </row>
@@ -7546,7 +6964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7940,12 +7358,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7967,12 +7385,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -8012,12 +7430,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8025,26 +7443,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -8084,12 +7502,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to quantum physics</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8111,12 +7529,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ravishankar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -8131,7 +7549,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -8156,12 +7574,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8169,26 +7587,26 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Vivekraj</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -8203,7 +7621,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -8228,12 +7646,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Introduction to quantum physics</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8255,7 +7673,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -8300,12 +7718,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8327,7 +7745,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Anand B</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -8372,12 +7790,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8399,7 +7817,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -8444,12 +7862,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8471,7 +7889,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Sandesh Phalke</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -8495,150 +7913,6 @@
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_pre_mid_timetable.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [L404]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>HS152 [C304]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [L404]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>HS152 [C304]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C304, L404</t>
+          <t>C304, L404</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L107</t>
+          <t>C002, L404, L106</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004, L404</t>
+          <t>L404, C304</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L206</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2987,26 +2987,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3014,42 +3014,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS152, MA162, CS161...</t>
+          <t>CS161, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3061,34 +3061,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3116,7 +3116,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3153,6 +3153,92 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CS161, HS152</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3288,17 +3374,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3312,7 +3398,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3384,7 +3470,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3456,7 +3542,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3504,17 +3590,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3528,7 +3614,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3576,17 +3662,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3600,7 +3686,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3720,17 +3806,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -3744,7 +3830,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3792,17 +3878,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -3816,7 +3902,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3864,17 +3950,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -3888,7 +3974,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3936,17 +4022,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -3960,7 +4046,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4032,7 +4118,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4080,17 +4166,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4104,7 +4190,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4162,7 +4248,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4180,7 +4266,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4390,7 +4476,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4408,7 +4494,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4456,12 +4542,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4484,7 +4570,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4537,12 +4623,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4560,7 +4646,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4613,7 +4699,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4636,7 +4722,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4689,7 +4775,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4712,7 +4798,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4765,12 +4851,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4788,7 +4874,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4841,12 +4927,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4864,7 +4950,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4922,7 +5008,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -4940,7 +5026,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5150,7 +5236,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5168,7 +5254,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5216,12 +5302,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5244,7 +5330,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5297,12 +5383,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5320,7 +5406,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5373,7 +5459,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5396,7 +5482,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5449,7 +5535,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5472,7 +5558,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5525,12 +5611,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -5548,7 +5634,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5601,12 +5687,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5624,7 +5710,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5682,7 +5768,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5700,7 +5786,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5910,7 +5996,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5928,7 +6014,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5976,12 +6062,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6004,7 +6090,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6057,12 +6143,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6080,7 +6166,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6133,7 +6219,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6156,7 +6242,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6209,7 +6295,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6232,7 +6318,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6285,12 +6371,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6308,7 +6394,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6361,12 +6447,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6384,7 +6470,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6836,7 +6922,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6900,12 +6986,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 11.1%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
